--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1096,17 +1109,17 @@
   <sheetPr/>
   <dimension ref="C3:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1314,17 +1327,17 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="20490" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>ChatInfo</t>
+  </si>
+  <si>
+    <t>Socialize</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1107,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1314,6 +1332,111 @@
         <v>21</v>
       </c>
       <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="5">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1412,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1432,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1452,10 +1575,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1472,10 +1595,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1492,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7575"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -97,21 +97,6 @@
   </si>
   <si>
     <t>Account</t>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-  </si>
-  <si>
-    <t>UnitCache</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>ChatInfo</t>
-  </si>
-  <si>
-    <t>Socialize</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1128,7 +1113,7 @@
   <dimension ref="C3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1353,90 +1338,20 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="5">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="5">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="5">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="5">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>27</v>
-      </c>
+    <row r="14" spans="3:3">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,10 +1450,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1555,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1575,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1595,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1615,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
